--- a/test_cases/PE-54/TC-14-Bloqueo.xlsx
+++ b/test_cases/PE-54/TC-14-Bloqueo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Desktop\casos de prueba\PE-54\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39333784-4FAB-441E-948A-AA7AAFF39522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256CDD7B-6940-4726-B2DE-90ECAFF7DA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4878CB20-F5DA-4D89-879F-D1C366F35C19}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>PE-54.</t>
   </si>
   <si>
-    <t>Muestra valido, permite que se ingrese la contraseña</t>
-  </si>
-  <si>
     <t>Clikea "login"</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Contraseña3 = 2</t>
+  </si>
+  <si>
+    <t>Muestra valido</t>
   </si>
 </sst>
 </file>
@@ -784,41 +784,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -830,45 +815,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -899,8 +845,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9B647B-A62E-4E07-8E2B-D01E81153806}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
@@ -1255,10 +1255,10 @@
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="75"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
@@ -1296,13 +1296,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="14">
         <v>1</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21">
@@ -1314,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1326,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1338,38 +1338,38 @@
         <v>4</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="D12" s="76"/>
+      <c r="D12" s="33"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
+      <c r="B15" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="65"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" spans="1:5" ht="21">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="16" t="s">
         <v>16</v>
       </c>
@@ -1382,170 +1382,155 @@
       <c r="A19" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="57" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="58"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="30"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
     </row>
     <row r="21" spans="1:5" ht="27" customHeight="1">
       <c r="A21" s="18">
         <v>1</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="60"/>
+      <c r="B21" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="61"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="32">
         <v>2</v>
       </c>
-      <c r="B22" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
+      <c r="B22" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
     </row>
     <row r="23" spans="1:5" ht="37" customHeight="1">
       <c r="A23" s="18">
         <v>3</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5" ht="27" customHeight="1">
       <c r="A24" s="18">
         <v>4</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="48"/>
+      <c r="B24" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="20">
         <v>5</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="1:5" ht="37" customHeight="1">
       <c r="A26" s="28">
         <v>6</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="54"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:5" ht="27" customHeight="1">
       <c r="A27" s="21">
         <v>7</v>
       </c>
-      <c r="B27" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="48"/>
+      <c r="B27" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="43"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="21">
         <v>8</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
+      <c r="B28" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
     </row>
     <row r="29" spans="1:5" ht="37" customHeight="1">
       <c r="A29" s="27">
         <v>9</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="71"/>
     </row>
     <row r="30" spans="1:5" ht="40" customHeight="1">
       <c r="A30" s="28">
         <v>10</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="72"/>
+      <c r="D30" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="34"/>
+      <c r="E30" s="64"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="29"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
@@ -1562,6 +1547,21 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test_cases/PE-54/TC-14-Bloqueo.xlsx
+++ b/test_cases/PE-54/TC-14-Bloqueo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256CDD7B-6940-4726-B2DE-90ECAFF7DA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B80947-149E-4D76-A07F-375A1158BB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4878CB20-F5DA-4D89-879F-D1C366F35C19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Muestra valido</t>
+  </si>
+  <si>
+    <t>click in sing in</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -787,12 +790,60 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -805,16 +856,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -845,63 +905,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,15 +1220,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9B647B-A62E-4E07-8E2B-D01E81153806}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1234,10 +1238,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1251,14 +1255,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +1270,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.5">
+    <row r="5" spans="1:7" ht="31.5">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1281,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -1291,7 +1295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21">
+    <row r="8" spans="1:7" ht="21">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -1305,11 +1309,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21">
+    <row r="9" spans="1:7" ht="21">
       <c r="A9" s="14">
         <v>2</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" s="26">
         <v>2</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" s="14">
         <v>3</v>
       </c>
@@ -1328,8 +1334,9 @@
       <c r="E10" s="23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="77"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="14">
         <v>4</v>
       </c>
@@ -1341,35 +1348,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="D12" s="33"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="47"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="66"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
     </row>
     <row r="17" spans="1:5" ht="21">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="16" t="s">
         <v>16</v>
       </c>
@@ -1402,10 +1409,10 @@
       <c r="A21" s="18">
         <v>1</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="65"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="61" t="s">
         <v>37</v>
       </c>
@@ -1415,122 +1422,137 @@
       <c r="A22" s="32">
         <v>2</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" ht="37" customHeight="1">
       <c r="A23" s="18">
         <v>3</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="1:5" ht="27" customHeight="1">
       <c r="A24" s="18">
         <v>4</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42" t="s">
+      <c r="C24" s="47"/>
+      <c r="D24" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="43"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="20">
         <v>5</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5" ht="37" customHeight="1">
       <c r="A26" s="28">
         <v>6</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:5" ht="27" customHeight="1">
       <c r="A27" s="21">
         <v>7</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42" t="s">
+      <c r="C27" s="47"/>
+      <c r="D27" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="49"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="21">
         <v>8</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5" ht="37" customHeight="1">
       <c r="A29" s="27">
         <v>9</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="71"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5" ht="40" customHeight="1">
       <c r="A30" s="28">
         <v>10</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="64" t="s">
+      <c r="C30" s="45"/>
+      <c r="D30" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="64"/>
+      <c r="E30" s="35"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="29"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
@@ -1547,21 +1569,6 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
